--- a/backend_tests/z_input_files/v2/09_many_to_many_mapping.xlsx
+++ b/backend_tests/z_input_files/v2/09_many_to_many_mapping.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Categories" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="151">
   <si>
     <t xml:space="preserve">Source</t>
   </si>
@@ -484,7 +484,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -508,13 +508,6 @@
     </font>
     <font>
       <b val="true"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <u val="single"/>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -593,15 +586,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -806,8 +799,8 @@
   </sheetPr>
   <dimension ref="A1:F1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F12" activeCellId="0" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -998,7 +991,7 @@
       <c r="A11" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -1026,6 +1019,29 @@
       </c>
       <c r="E12" s="2" t="s">
         <v>19</v>
+      </c>
+      <c r="F12" s="2" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" s="2" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="1048548" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1075,8 +1091,8 @@
   </sheetPr>
   <dimension ref="A1:V19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G13" activeCellId="0" sqref="G13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K18" activeCellId="0" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1085,10 +1101,10 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="12.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="6.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="6.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="11.02"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="4" width="13.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="18.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="3" width="13.77"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="8.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="4" width="18.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="3" width="18.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="8.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="13.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="2" width="5.76"/>
@@ -1103,56 +1119,56 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>42</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6" t="s">
+      <c r="D1" s="5"/>
+      <c r="E1" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6" t="s">
+      <c r="F1" s="5"/>
+      <c r="G1" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6" t="s">
+      <c r="H1" s="5"/>
+      <c r="I1" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6" t="s">
+      <c r="J1" s="5"/>
+      <c r="K1" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="L1" s="6"/>
-      <c r="M1" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="5"/>
-      <c r="O1" s="6" t="s">
+      <c r="L1" s="5"/>
+      <c r="M1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="4"/>
+      <c r="O1" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="P1" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6" t="s">
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="S1" s="6" t="s">
+      <c r="S1" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="T1" s="6" t="s">
+      <c r="T1" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="U1" s="6" t="s">
+      <c r="U1" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="V1" s="6" t="s">
+      <c r="V1" s="5" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1160,34 +1176,34 @@
       <c r="A2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="L2" s="3" t="s">
         <v>62</v>
       </c>
       <c r="M2" s="2" t="s">
@@ -1196,50 +1212,50 @@
       <c r="N2" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="O2" s="4" t="n">
+      <c r="O2" s="3" t="n">
         <v>2016</v>
       </c>
-      <c r="P2" s="4" t="n">
+      <c r="P2" s="3" t="n">
         <v>2016</v>
       </c>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4" t="s">
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="S2" s="4" t="s">
+      <c r="S2" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="T2" s="4" t="s">
+      <c r="T2" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="U2" s="4"/>
+      <c r="U2" s="3"/>
       <c r="V2" s="2" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J3" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="K3" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="L3" s="3" t="s">
         <v>74</v>
       </c>
       <c r="M3" s="2" t="s">
@@ -1248,39 +1264,39 @@
       <c r="N3" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4" t="s">
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="S3" s="4"/>
-      <c r="T3" s="4"/>
-      <c r="U3" s="4"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="I4" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="J4" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="K4" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="L4" s="4" t="s">
+      <c r="L4" s="3" t="s">
         <v>82</v>
       </c>
       <c r="M4" s="2" t="s">
@@ -1289,39 +1305,39 @@
       <c r="N4" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4" t="s">
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="S4" s="4"/>
-      <c r="T4" s="4"/>
-      <c r="U4" s="4"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="I5" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="J5" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="K5" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="L5" s="4" t="s">
+      <c r="L5" s="3" t="s">
         <v>90</v>
       </c>
       <c r="M5" s="2" t="s">
@@ -1330,39 +1346,39 @@
       <c r="N5" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
-      <c r="R5" s="4" t="s">
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="S5" s="4"/>
-      <c r="T5" s="4"/>
-      <c r="U5" s="4"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="H6" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="I6" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="J6" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="K6" s="4" t="s">
+      <c r="K6" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="L6" s="4" t="s">
+      <c r="L6" s="3" t="s">
         <v>98</v>
       </c>
       <c r="M6" s="2" t="s">
@@ -1371,39 +1387,39 @@
       <c r="N6" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4"/>
-      <c r="R6" s="4" t="s">
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="S6" s="4"/>
-      <c r="T6" s="4"/>
-      <c r="U6" s="4"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G7" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="H7" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="I7" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="J7" s="4" t="s">
+      <c r="J7" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="K7" s="4" t="s">
+      <c r="K7" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="L7" s="4" t="s">
+      <c r="L7" s="3" t="s">
         <v>106</v>
       </c>
       <c r="M7" s="2" t="s">
@@ -1412,41 +1428,41 @@
       <c r="N7" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="4"/>
-      <c r="R7" s="4" t="s">
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="S7" s="4"/>
-      <c r="T7" s="4"/>
-      <c r="U7" s="4"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4" t="s">
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="G8" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="H8" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="I8" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="J8" s="4" t="s">
+      <c r="J8" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="K8" s="4" t="s">
+      <c r="K8" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="L8" s="4" t="s">
+      <c r="L8" s="3" t="s">
         <v>114</v>
       </c>
       <c r="M8" s="2" t="s">
@@ -1455,37 +1471,37 @@
       <c r="N8" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="S8" s="4"/>
-      <c r="T8" s="4"/>
-      <c r="U8" s="4"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4" t="s">
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="G9" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="H9" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4" t="s">
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="L9" s="4" t="s">
+      <c r="L9" s="3" t="s">
         <v>120</v>
       </c>
       <c r="M9" s="2" t="s">
@@ -1494,35 +1510,35 @@
       <c r="N9" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="4"/>
-      <c r="R9" s="4"/>
-      <c r="S9" s="4"/>
-      <c r="T9" s="4"/>
-      <c r="U9" s="4"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="3"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4" t="s">
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="G10" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="H10" s="4" t="s">
+      <c r="H10" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4" t="s">
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="L10" s="4" t="s">
+      <c r="L10" s="3" t="s">
         <v>126</v>
       </c>
       <c r="M10" s="2" t="s">
@@ -1531,216 +1547,216 @@
       <c r="N10" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="O10" s="4"/>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="4"/>
-      <c r="R10" s="4"/>
-      <c r="S10" s="4"/>
-      <c r="T10" s="4"/>
-      <c r="U10" s="4"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
+      <c r="U10" s="3"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4" t="s">
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F11" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="G11" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4" t="s">
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="L11" s="4" t="s">
+      <c r="L11" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="4"/>
-      <c r="R11" s="4"/>
-      <c r="S11" s="4"/>
-      <c r="T11" s="4"/>
-      <c r="U11" s="4"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4" t="s">
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="F12" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="G12" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4" t="s">
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="L12" s="4" t="s">
+      <c r="L12" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="O12" s="4"/>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="4"/>
-      <c r="S12" s="4"/>
-      <c r="T12" s="4"/>
-      <c r="U12" s="4"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="3"/>
+      <c r="U12" s="3"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4" t="s">
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="L13" s="4" t="s">
+      <c r="L13" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="O13" s="4"/>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="4"/>
-      <c r="R13" s="4"/>
-      <c r="S13" s="4"/>
-      <c r="T13" s="4"/>
-      <c r="U13" s="4"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="3"/>
+      <c r="U13" s="3"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4" t="s">
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="L14" s="4" t="s">
+      <c r="L14" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="O14" s="4"/>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="4"/>
-      <c r="S14" s="4"/>
-      <c r="T14" s="4"/>
-      <c r="U14" s="4"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4" t="s">
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="L15" s="4" t="s">
+      <c r="L15" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="O15" s="4"/>
-      <c r="P15" s="4"/>
-      <c r="Q15" s="4"/>
-      <c r="R15" s="4"/>
-      <c r="S15" s="4"/>
-      <c r="T15" s="4"/>
-      <c r="U15" s="4"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="3"/>
+      <c r="U15" s="3"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4" t="s">
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="L16" s="4" t="s">
+      <c r="L16" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="O16" s="4"/>
-      <c r="P16" s="4"/>
-      <c r="Q16" s="4"/>
-      <c r="R16" s="4"/>
-      <c r="S16" s="4"/>
-      <c r="T16" s="4"/>
-      <c r="U16" s="4"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4" t="s">
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="L17" s="4" t="s">
+      <c r="L17" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="O17" s="4"/>
-      <c r="P17" s="4"/>
-      <c r="Q17" s="4"/>
-      <c r="R17" s="4"/>
-      <c r="S17" s="4"/>
-      <c r="T17" s="4"/>
-      <c r="U17" s="4"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="3"/>
+      <c r="U17" s="3"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4" t="s">
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="L18" s="4" t="s">
+      <c r="L18" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="O18" s="4"/>
-      <c r="P18" s="4"/>
-      <c r="Q18" s="4"/>
-      <c r="R18" s="4"/>
-      <c r="S18" s="4"/>
-      <c r="T18" s="4"/>
-      <c r="U18" s="4"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3"/>
+      <c r="S18" s="3"/>
+      <c r="T18" s="3"/>
+      <c r="U18" s="3"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4" t="s">
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="L19" s="4" t="s">
+      <c r="L19" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="O19" s="4"/>
-      <c r="P19" s="4"/>
-      <c r="Q19" s="4"/>
-      <c r="R19" s="4"/>
-      <c r="S19" s="4"/>
-      <c r="T19" s="4"/>
-      <c r="U19" s="4"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/backend_tests/z_input_files/v2/09_many_to_many_mapping.xlsx
+++ b/backend_tests/z_input_files/v2/09_many_to_many_mapping.xlsx
@@ -8,8 +8,8 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Categories" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="CategoriesMapping" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Hierarchies" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="HierarchiesMapping" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="DatasetQry ds1" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
@@ -569,7 +569,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -591,10 +591,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1200,7 +1196,7 @@
       <c r="J2" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K2" s="3" t="s">
         <v>61</v>
       </c>
       <c r="L2" s="3" t="s">
@@ -1293,7 +1289,7 @@
       <c r="J4" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="K4" s="3" t="s">
         <v>81</v>
       </c>
       <c r="L4" s="3" t="s">
@@ -1723,7 +1719,7 @@
       <c r="G18" s="3"/>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
-      <c r="K18" s="6" t="s">
+      <c r="K18" s="3" t="s">
         <v>147</v>
       </c>
       <c r="L18" s="3" t="s">
